--- a/results/mp/tinybert/corona/confidence/84/stop-words-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-masking-0.15/avg_0.004_scores.xlsx
@@ -52,12 +52,12 @@
     <t>emergency</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -73,54 +73,57 @@
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>special</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>better</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
@@ -142,18 +145,18 @@
     <t>please</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>hope</t>
+    <t>sure</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>shopping</t>
   </si>
   <si>
@@ -170,9 +173,6 @@
   </si>
   <si>
     <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -541,7 +541,7 @@
         <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -599,13 +599,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9411764705882353</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -617,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>18</v>
@@ -649,13 +649,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8055555555555556</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K4">
-        <v>0.9491525423728814</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -691,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -699,13 +699,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.702054794520548</v>
+        <v>0.6815068493150684</v>
       </c>
       <c r="C5">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D5">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -717,19 +717,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -749,13 +749,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.36</v>
+        <v>0.3866666666666667</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -767,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -799,13 +799,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3333333333333333</v>
+        <v>0.3355704697986577</v>
       </c>
       <c r="C7">
-        <v>172</v>
+        <v>50</v>
       </c>
       <c r="D7">
-        <v>172</v>
+        <v>50</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>344</v>
+        <v>99</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K7">
-        <v>0.8275862068965517</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -849,13 +849,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3221476510067114</v>
+        <v>0.3352713178294573</v>
       </c>
       <c r="C8">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="D8">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -867,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>101</v>
+        <v>343</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K8">
-        <v>0.8170731707317073</v>
+        <v>0.8359375</v>
       </c>
       <c r="L8">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="M8">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -923,13 +923,13 @@
         <v>24</v>
       </c>
       <c r="K9">
-        <v>0.8098591549295775</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L9">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="M9">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -949,13 +949,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1746031746031746</v>
+        <v>0.1547619047619048</v>
       </c>
       <c r="C10">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D10">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -967,19 +967,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K10">
-        <v>0.796875</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="L10">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="M10">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -999,37 +999,37 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.09139784946236559</v>
+        <v>0.08847184986595175</v>
       </c>
       <c r="C11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E11">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K11">
-        <v>0.7777777777777778</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L11">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="M11">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1049,13 +1049,13 @@
         <v>27</v>
       </c>
       <c r="K12">
-        <v>0.7416666666666667</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="L12">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M12">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1075,13 +1075,13 @@
         <v>28</v>
       </c>
       <c r="K13">
-        <v>0.7358490566037735</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L13">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="M13">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1101,13 +1101,13 @@
         <v>29</v>
       </c>
       <c r="K14">
-        <v>0.7254901960784313</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L14">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M14">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1127,13 +1127,13 @@
         <v>30</v>
       </c>
       <c r="K15">
-        <v>0.723404255319149</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L15">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="M15">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1153,13 +1153,13 @@
         <v>31</v>
       </c>
       <c r="K16">
-        <v>0.71875</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L16">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="M16">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1179,25 +1179,25 @@
         <v>32</v>
       </c>
       <c r="K17">
-        <v>0.6984126984126984</v>
+        <v>0.725</v>
       </c>
       <c r="L17">
+        <v>116</v>
+      </c>
+      <c r="M17">
+        <v>116</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>44</v>
-      </c>
-      <c r="M17">
-        <v>44</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>19</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1205,13 +1205,13 @@
         <v>33</v>
       </c>
       <c r="K18">
-        <v>0.6875</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L18">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M18">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1257,13 +1257,13 @@
         <v>35</v>
       </c>
       <c r="K20">
-        <v>0.6266318537859008</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L20">
-        <v>240</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>240</v>
+        <v>29</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>143</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1283,13 +1283,13 @@
         <v>36</v>
       </c>
       <c r="K21">
-        <v>0.5813953488372093</v>
+        <v>0.5900783289817232</v>
       </c>
       <c r="L21">
-        <v>25</v>
+        <v>226</v>
       </c>
       <c r="M21">
-        <v>25</v>
+        <v>226</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1301,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>18</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1309,13 +1309,13 @@
         <v>37</v>
       </c>
       <c r="K22">
-        <v>0.5600000000000001</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="L22">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1327,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1335,13 +1335,13 @@
         <v>38</v>
       </c>
       <c r="K23">
-        <v>0.5558823529411765</v>
+        <v>0.58</v>
       </c>
       <c r="L23">
-        <v>189</v>
+        <v>29</v>
       </c>
       <c r="M23">
-        <v>189</v>
+        <v>29</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>151</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1361,13 +1361,13 @@
         <v>39</v>
       </c>
       <c r="K24">
-        <v>0.5280898876404494</v>
+        <v>0.5676470588235294</v>
       </c>
       <c r="L24">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="M24">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>42</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1387,13 +1387,13 @@
         <v>40</v>
       </c>
       <c r="K25">
-        <v>0.4949152542372882</v>
+        <v>0.5617977528089888</v>
       </c>
       <c r="L25">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="M25">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>149</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1413,13 +1413,13 @@
         <v>41</v>
       </c>
       <c r="K26">
-        <v>0.4560669456066946</v>
+        <v>0.5152542372881356</v>
       </c>
       <c r="L26">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="M26">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1439,13 +1439,13 @@
         <v>42</v>
       </c>
       <c r="K27">
-        <v>0.4520547945205479</v>
+        <v>0.4811715481171548</v>
       </c>
       <c r="L27">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="M27">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>40</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1465,13 +1465,13 @@
         <v>43</v>
       </c>
       <c r="K28">
-        <v>0.4307692307692308</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L28">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M28">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1491,13 +1491,13 @@
         <v>44</v>
       </c>
       <c r="K29">
-        <v>0.4230769230769231</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L29">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M29">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1543,13 +1543,13 @@
         <v>46</v>
       </c>
       <c r="K31">
-        <v>0.125</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L31">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>364</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1569,13 +1569,13 @@
         <v>47</v>
       </c>
       <c r="K32">
-        <v>0.1148325358851675</v>
+        <v>0.1081730769230769</v>
       </c>
       <c r="L32">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M32">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1595,13 +1595,13 @@
         <v>48</v>
       </c>
       <c r="K33">
-        <v>0.06375838926174497</v>
+        <v>0.1004784688995215</v>
       </c>
       <c r="L33">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M33">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>837</v>
+        <v>376</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1621,13 +1621,13 @@
         <v>49</v>
       </c>
       <c r="K34">
-        <v>0.04328523862375139</v>
+        <v>0.06487695749440715</v>
       </c>
       <c r="L34">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="M34">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1639,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>862</v>
+        <v>836</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1647,25 +1647,25 @@
         <v>50</v>
       </c>
       <c r="K35">
-        <v>0.02476635514018691</v>
+        <v>0.04661487236403995</v>
       </c>
       <c r="L35">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M35">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="N35">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>2087</v>
+        <v>859</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1673,25 +1673,25 @@
         <v>51</v>
       </c>
       <c r="K36">
-        <v>0.01450209474701901</v>
+        <v>0.02618045815801777</v>
       </c>
       <c r="L36">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="M36">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="N36">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="O36">
-        <v>0.07999999999999996</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>3058</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1699,25 +1699,25 @@
         <v>52</v>
       </c>
       <c r="K37">
-        <v>0.008461297398934503</v>
+        <v>0.01452081316553727</v>
       </c>
       <c r="L37">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="M37">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="N37">
-        <v>0.73</v>
+        <v>0.85</v>
       </c>
       <c r="O37">
-        <v>0.27</v>
+        <v>0.15</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>3164</v>
+        <v>3054</v>
       </c>
     </row>
   </sheetData>
